--- a/data/comisiones/clientes_comisiones.xlsx
+++ b/data/comisiones/clientes_comisiones.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liccasa\Documents\Programación\odoo_comisiones\data\comisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lic.Costich\Documents\programacion\odoo_comisiones\data\comisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3164295-AB55-41D9-A4EA-01B1AFD6D6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E807B7-5E23-4BE4-9528-56EEE559A402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3C23C2AF-D6D9-4B38-9AA9-C7C0ABA30E22}"/>
+    <workbookView xWindow="22320" yWindow="3540" windowWidth="21750" windowHeight="12320" xr2:uid="{3C23C2AF-D6D9-4B38-9AA9-C7C0ABA30E22}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$I$22</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t>partner_id_x</t>
   </si>
@@ -60,9 +63,6 @@
     <t>Four Seasons</t>
   </si>
   <si>
-    <t>Diamante</t>
-  </si>
-  <si>
     <t>Barcelo</t>
   </si>
   <si>
@@ -114,9 +114,6 @@
     <t>Jonathan Arellano</t>
   </si>
   <si>
-    <t>Paulina Flores</t>
-  </si>
-  <si>
     <t>Edgar Martell</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>Carlos Cota</t>
   </si>
   <si>
-    <t>Arnulfo Hidalgo</t>
-  </si>
-  <si>
     <t>Yazmin Lagunes</t>
   </si>
   <si>
@@ -177,9 +171,6 @@
     <t>ADMINISTRADORA FASE LAS ESTRELLAS</t>
   </si>
   <si>
-    <t>DCSL CONSTRUCTION SERVICES</t>
-  </si>
-  <si>
     <t>HOSPITALIDAD TURISTICA</t>
   </si>
   <si>
@@ -241,6 +232,21 @@
   </si>
   <si>
     <t>%_comision_cliente</t>
+  </si>
+  <si>
+    <t>PDS MANAGEMENT</t>
+  </si>
+  <si>
+    <t>ASOCIACION DE CONDOMINOS CABO DEL SOL</t>
+  </si>
+  <si>
+    <t>FIDEICOMISO CABO DEL SOL, BANAMEX 140819-2</t>
+  </si>
+  <si>
+    <t>Aladith Berrelleza</t>
+  </si>
+  <si>
+    <t>Cabo Del Sol</t>
   </si>
 </sst>
 </file>
@@ -316,12 +322,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,23 +643,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BA6B0E-5563-4218-B5DE-A32E572894C9}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
-    <col min="2" max="4" width="29.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="2" customWidth="1"/>
+    <col min="2" max="4" width="29.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="29.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +673,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -675,100 +682,102 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>12987</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>205</v>
+      </c>
+      <c r="G2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>12893</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>210</v>
-      </c>
-      <c r="G2" t="s">
-        <v>70</v>
-      </c>
       <c r="H2" s="4">
+        <v>45261</v>
+      </c>
+      <c r="I2" s="4">
         <v>45291</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>12917</v>
+        <v>13149</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H3" s="4">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>12985</v>
+        <v>13215</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H4" s="4">
-        <v>45291</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>12987</v>
+        <v>13456</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
@@ -780,27 +789,24 @@
         <v>205</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H5" s="4">
-        <v>45291</v>
-      </c>
-      <c r="I5" s="4">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>13149</v>
+        <v>13568</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -809,21 +815,24 @@
         <v>205</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H6" s="4">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45261</v>
+      </c>
+      <c r="I6" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>13215</v>
+        <v>14417</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
@@ -835,47 +844,53 @@
         <v>205</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H7" s="4">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45261</v>
+      </c>
+      <c r="I7" s="4">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>13431</v>
+        <v>14418</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
       <c r="F8">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H8" s="4">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45261</v>
+      </c>
+      <c r="I8" s="4">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>13431</v>
+        <v>14807</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
@@ -884,235 +899,232 @@
         <v>10</v>
       </c>
       <c r="F9">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="4">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>16184</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>218</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="4">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>12893</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>210</v>
+      </c>
+      <c r="G11" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="4">
-        <v>45291</v>
-      </c>
-      <c r="I9" s="4">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>13456</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>205</v>
-      </c>
-      <c r="G10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="4">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>13568</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>205</v>
-      </c>
-      <c r="G11" t="s">
-        <v>69</v>
-      </c>
       <c r="H11" s="4">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>14417</v>
+        <v>12917</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H12" s="4">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>14418</v>
+        <v>14938</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
       <c r="F13">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H13" s="4">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>14807</v>
+        <v>15233</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
       <c r="F14">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H14" s="4">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14868</v>
+        <v>15224</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>10</v>
       </c>
       <c r="F15">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H15" s="4">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>14875</v>
+        <v>15228</v>
       </c>
       <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>211</v>
+      </c>
+      <c r="G16" t="s">
         <v>63</v>
       </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>213</v>
-      </c>
-      <c r="G16" t="s">
-        <v>66</v>
-      </c>
       <c r="H16" s="4">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>14938</v>
+        <v>15241</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>10</v>
       </c>
       <c r="F17">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H17" s="4">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>15224</v>
+        <v>16148</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1124,177 +1136,210 @@
         <v>211</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H18" s="4">
+        <v>45261</v>
+      </c>
+      <c r="I18" s="4">
         <v>45291</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>15228</v>
+        <v>12985</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>10</v>
       </c>
       <c r="F19">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H19" s="4">
+        <v>45261</v>
+      </c>
+      <c r="I19" s="4">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>13431</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>213</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="4">
+        <v>45261</v>
+      </c>
+      <c r="I20" s="4">
         <v>45291</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>15233</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-      <c r="F20">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>14868</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>213</v>
+      </c>
+      <c r="G21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="4">
+        <v>45261</v>
+      </c>
+      <c r="I21" s="4">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>14875</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>213</v>
+      </c>
+      <c r="G22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="4">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>15231</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="5">
+        <v>10</v>
+      </c>
+      <c r="F23" s="5">
         <v>210</v>
       </c>
-      <c r="G20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="4">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>15241</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <v>211</v>
-      </c>
-      <c r="G21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="4">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>15713</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22">
-        <v>10</v>
-      </c>
-      <c r="F22">
-        <v>211</v>
-      </c>
-      <c r="G22" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="4">
-        <v>45291</v>
-      </c>
-      <c r="I22" s="4">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>16148</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23">
-        <v>211</v>
-      </c>
-      <c r="G23" t="s">
-        <v>67</v>
+      <c r="G23" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="H23" s="4">
-        <v>45291</v>
-      </c>
-      <c r="I23" s="4">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>16184</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24">
-        <v>10</v>
-      </c>
-      <c r="F24">
-        <v>218</v>
-      </c>
-      <c r="G24" t="s">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>15242</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>68</v>
       </c>
+      <c r="C24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="5">
+        <v>10</v>
+      </c>
+      <c r="F24" s="5">
+        <v>210</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="H24" s="4">
-        <v>45291</v>
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>13169</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="5">
+        <v>10</v>
+      </c>
+      <c r="F25" s="5">
+        <v>210</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="4">
+        <v>45352</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I24">
-    <sortCondition ref="A1:A24"/>
+  <autoFilter ref="A1:I22" xr:uid="{06BA6B0E-5563-4218-B5DE-A32E572894C9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I22">
+    <sortCondition ref="G1:G22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/comisiones/clientes_comisiones.xlsx
+++ b/data/comisiones/clientes_comisiones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lic.Costich\Documents\programacion\odoo_comisiones\data\comisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liccasa\Documents\Programación\odoo_comisiones\data\comisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E807B7-5E23-4BE4-9528-56EEE559A402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB61875-DAD0-49D4-A8BF-D921E0B720CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22320" yWindow="3540" windowWidth="21750" windowHeight="12320" xr2:uid="{3C23C2AF-D6D9-4B38-9AA9-C7C0ABA30E22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3C23C2AF-D6D9-4B38-9AA9-C7C0ABA30E22}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -322,13 +322,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,21 +644,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BA6B0E-5563-4218-B5DE-A32E572894C9}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="2" customWidth="1"/>
-    <col min="2" max="4" width="29.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="29.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" customWidth="1"/>
+    <col min="2" max="4" width="29.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +687,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12987</v>
       </c>
@@ -717,7 +716,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13149</v>
       </c>
@@ -743,7 +742,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13215</v>
       </c>
@@ -769,7 +768,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13456</v>
       </c>
@@ -795,7 +794,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13568</v>
       </c>
@@ -824,7 +823,7 @@
         <v>45412</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>14417</v>
       </c>
@@ -853,7 +852,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>14418</v>
       </c>
@@ -882,7 +881,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14807</v>
       </c>
@@ -908,7 +907,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>16184</v>
       </c>
@@ -934,7 +933,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12893</v>
       </c>
@@ -960,7 +959,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12917</v>
       </c>
@@ -986,7 +985,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14938</v>
       </c>
@@ -1012,7 +1011,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15233</v>
       </c>
@@ -1038,7 +1037,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15224</v>
       </c>
@@ -1064,7 +1063,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15228</v>
       </c>
@@ -1090,7 +1089,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15241</v>
       </c>
@@ -1116,7 +1115,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16148</v>
       </c>
@@ -1145,7 +1144,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12985</v>
       </c>
@@ -1174,7 +1173,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13431</v>
       </c>
@@ -1203,7 +1202,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14868</v>
       </c>
@@ -1232,7 +1231,7 @@
         <v>45351</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14875</v>
       </c>
@@ -1258,78 +1257,78 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>15231</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="5">
-        <v>10</v>
-      </c>
-      <c r="F23" s="5">
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
         <v>210</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" t="s">
         <v>66</v>
       </c>
       <c r="H23" s="4">
         <v>45352</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>15242</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="5">
-        <v>10</v>
-      </c>
-      <c r="F24" s="5">
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
         <v>210</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" t="s">
         <v>66</v>
       </c>
       <c r="H24" s="4">
         <v>45352</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>13169</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="5">
-        <v>10</v>
-      </c>
-      <c r="F25" s="5">
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
         <v>210</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" t="s">
         <v>66</v>
       </c>
       <c r="H25" s="4">
@@ -1337,7 +1336,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I22" xr:uid="{06BA6B0E-5563-4218-B5DE-A32E572894C9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I22">
     <sortCondition ref="G1:G22"/>
   </sortState>
